--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/147.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/147.xlsx
@@ -479,13 +479,13 @@
         <v>0.06450776339686798</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.049810774806122</v>
+        <v>-1.971619553967698</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1234976155058696</v>
+        <v>0.1134314846568197</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1012605935584967</v>
+        <v>-0.1028482170800719</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.06579568852016057</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.215636008400384</v>
+        <v>-2.12390698822086</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06476896346247586</v>
+        <v>0.05685097323693258</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1025572849172631</v>
+        <v>-0.09751873020664739</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06809054369293252</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.352502208262648</v>
+        <v>-2.252040343833446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05646733313125805</v>
+        <v>0.03697182861968313</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1156162965271158</v>
+        <v>-0.1108375680247947</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.07123461199910154</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.447796824718442</v>
+        <v>-2.327394823604314</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07858366679081938</v>
+        <v>0.04902935047831548</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1367012543222961</v>
+        <v>-0.1345592129055569</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.07452520756003383</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.402634638287955</v>
+        <v>-2.261794195296001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08287140914835822</v>
+        <v>0.04889821753281465</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1415293863994337</v>
+        <v>-0.1389640600330314</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.07767056121165904</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.085116033179684</v>
+        <v>-1.965635622208123</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1900881450725458</v>
+        <v>0.1544651180263988</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.132101842498939</v>
+        <v>-0.1389707691604757</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.08073108912475734</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.771532026357114</v>
+        <v>-1.637601984632715</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2201133201474992</v>
+        <v>0.20463231353028</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.09902584419889184</v>
+        <v>-0.1172033101280142</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.08424132985775405</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.364802763543611</v>
+        <v>-1.238693124736475</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2110419699222254</v>
+        <v>0.2197906721094995</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.09538949712411993</v>
+        <v>-0.1017399912104207</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.08919438408011258</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.9231787189719981</v>
+        <v>-0.7737554722168449</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1975480848698513</v>
+        <v>0.2170710358118799</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02598357371357467</v>
+        <v>-0.0546614340135916</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.09814735512115264</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3737749816915593</v>
+        <v>-0.2017993079929699</v>
       </c>
       <c r="F11" t="n">
-        <v>0.128778918645831</v>
+        <v>0.1711494981388419</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0360996420519334</v>
+        <v>0.0130025559441612</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1150530385710092</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1694142738134937</v>
+        <v>0.3684472485739804</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07321278131756054</v>
+        <v>-0.0009719466014903065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1220838193771676</v>
+        <v>0.08061348280303691</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1460159044970547</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7264468989186973</v>
+        <v>0.9450199024001615</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2123350777631158</v>
+        <v>-0.1310539987762859</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2217899920878796</v>
+        <v>0.183038071970015</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.197077475343762</v>
       </c>
       <c r="E14" t="n">
-        <v>1.290168524085797</v>
+        <v>1.535041307148637</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4452387774654525</v>
+        <v>-0.3343350710503228</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3498782135703858</v>
+        <v>0.2886080220669829</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2724855160895987</v>
       </c>
       <c r="E15" t="n">
-        <v>1.848773524695657</v>
+        <v>2.130326327337449</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7549851633899234</v>
+        <v>-0.6261485692370474</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4652471492599879</v>
+        <v>0.399370226885107</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3748315088077665</v>
       </c>
       <c r="E16" t="n">
-        <v>2.35506684870219</v>
+        <v>2.646283234546378</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9788193426290165</v>
+        <v>-0.8596390126304158</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5730762455436306</v>
+        <v>0.5069779219630901</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.5035063296601971</v>
       </c>
       <c r="E17" t="n">
-        <v>2.841196805056108</v>
+        <v>3.145757035466191</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.295324259572533</v>
+        <v>-1.159044193480623</v>
       </c>
       <c r="G17" t="n">
-        <v>0.693552656980321</v>
+        <v>0.6174601731905868</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6536947420094326</v>
       </c>
       <c r="E18" t="n">
-        <v>3.24823956709746</v>
+        <v>3.574666673610313</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.61930497425095</v>
+        <v>-1.486226991711968</v>
       </c>
       <c r="G18" t="n">
-        <v>0.846898303607641</v>
+        <v>0.7692797982846831</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8170859156123101</v>
       </c>
       <c r="E19" t="n">
-        <v>3.580408466861219</v>
+        <v>3.948389469080918</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.924888651556615</v>
+        <v>-1.798919294505132</v>
       </c>
       <c r="G19" t="n">
-        <v>1.001739475734347</v>
+        <v>0.9188323482233069</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9836882803487029</v>
       </c>
       <c r="E20" t="n">
-        <v>3.920422166369313</v>
+        <v>4.306043294401919</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.204679393363282</v>
+        <v>-2.095751829940816</v>
       </c>
       <c r="G20" t="n">
-        <v>1.142258490529656</v>
+        <v>1.058899411797145</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.143834681981906</v>
       </c>
       <c r="E21" t="n">
-        <v>4.15640535556855</v>
+        <v>4.534675719604989</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.468324315015074</v>
+        <v>-2.375884127326462</v>
       </c>
       <c r="G21" t="n">
-        <v>1.286743819485856</v>
+        <v>1.185958697097977</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.288769121923298</v>
       </c>
       <c r="E22" t="n">
-        <v>4.333867875675165</v>
+        <v>4.725928546212877</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.764226721418718</v>
+        <v>-2.681685546313727</v>
       </c>
       <c r="G22" t="n">
-        <v>1.383230220944015</v>
+        <v>1.313911516190245</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.411179204706238</v>
       </c>
       <c r="E23" t="n">
-        <v>4.491664113480716</v>
+        <v>4.861252866604323</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.055201883635252</v>
+        <v>-2.988958398933646</v>
       </c>
       <c r="G23" t="n">
-        <v>1.496174112022867</v>
+        <v>1.426361981441608</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.504653833358705</v>
       </c>
       <c r="E24" t="n">
-        <v>4.579226765517374</v>
+        <v>4.954149884879819</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.251628057423318</v>
+        <v>-3.190765597892321</v>
       </c>
       <c r="G24" t="n">
-        <v>1.611815072334299</v>
+        <v>1.538942359797118</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.56426825263469</v>
       </c>
       <c r="E25" t="n">
-        <v>4.658421305869049</v>
+        <v>5.01125675784374</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.398512204401169</v>
+        <v>-3.340028740469828</v>
       </c>
       <c r="G25" t="n">
-        <v>1.692949160438033</v>
+        <v>1.610628166697347</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.588021861162489</v>
       </c>
       <c r="E26" t="n">
-        <v>4.665167028553882</v>
+        <v>5.014339296944025</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.523155593901402</v>
+        <v>-3.449714130333153</v>
       </c>
       <c r="G26" t="n">
-        <v>1.738104027820399</v>
+        <v>1.662137187690074</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.576218654318437</v>
       </c>
       <c r="E27" t="n">
-        <v>4.633457252569751</v>
+        <v>4.951061246572767</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.606114564669966</v>
+        <v>-3.554506431567268</v>
       </c>
       <c r="G27" t="n">
-        <v>1.736295003093164</v>
+        <v>1.66085513442755</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.532356990607834</v>
       </c>
       <c r="E28" t="n">
-        <v>4.55631204569195</v>
+        <v>4.874345423851397</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.629236657525485</v>
+        <v>-3.571957786930721</v>
       </c>
       <c r="G28" t="n">
-        <v>1.727940919583746</v>
+        <v>1.65360805694643</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.461648734401221</v>
       </c>
       <c r="E29" t="n">
-        <v>4.400979887420461</v>
+        <v>4.712123601615362</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.620487040457196</v>
+        <v>-3.556398100546202</v>
       </c>
       <c r="G29" t="n">
-        <v>1.69375059620728</v>
+        <v>1.618771217652611</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.370984242633358</v>
       </c>
       <c r="E30" t="n">
-        <v>4.267040086965234</v>
+        <v>4.58037341638966</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.497111371083583</v>
+        <v>-3.443050746939681</v>
       </c>
       <c r="G30" t="n">
-        <v>1.653245764064441</v>
+        <v>1.572300751370499</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.267697607795277</v>
       </c>
       <c r="E31" t="n">
-        <v>4.099560748495631</v>
+        <v>4.400356548488825</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.4391234677021</v>
+        <v>-3.381911688381779</v>
       </c>
       <c r="G31" t="n">
-        <v>1.542161521128994</v>
+        <v>1.474920206200228</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.159262930864699</v>
       </c>
       <c r="E32" t="n">
-        <v>3.878774342878248</v>
+        <v>4.166403175301805</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.297891760596012</v>
+        <v>-3.236657859372875</v>
       </c>
       <c r="G32" t="n">
-        <v>1.488096322580016</v>
+        <v>1.421169116799775</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.051567210094184</v>
       </c>
       <c r="E33" t="n">
-        <v>3.643348621177558</v>
+        <v>3.921282154523527</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.184900600664712</v>
+        <v>-3.115291268708471</v>
       </c>
       <c r="G33" t="n">
-        <v>1.363242510446305</v>
+        <v>1.303275109508436</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9484755588280808</v>
       </c>
       <c r="E34" t="n">
-        <v>3.338423658202781</v>
+        <v>3.601538558786479</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.895511537168061</v>
+        <v>-2.841477444573597</v>
       </c>
       <c r="G34" t="n">
-        <v>1.204433194396676</v>
+        <v>1.157740107067551</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8524618797037024</v>
       </c>
       <c r="E35" t="n">
-        <v>3.100532637126675</v>
+        <v>3.354614612487735</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.791175456600154</v>
+        <v>-2.731161091770176</v>
       </c>
       <c r="G35" t="n">
-        <v>1.114852314840658</v>
+        <v>1.073940665606429</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7633077757874802</v>
       </c>
       <c r="E36" t="n">
-        <v>2.804186818391036</v>
+        <v>3.054590972071304</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.634519160539446</v>
+        <v>-2.580604002476948</v>
       </c>
       <c r="G36" t="n">
-        <v>1.01252897250602</v>
+        <v>0.9877216688206466</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6802609568804056</v>
       </c>
       <c r="E37" t="n">
-        <v>2.524390587298278</v>
+        <v>2.768336900853138</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.53203235946344</v>
+        <v>-2.457722063891163</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9602599903500653</v>
+        <v>0.9107014956815785</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6011304980389252</v>
       </c>
       <c r="E38" t="n">
-        <v>2.278204645018399</v>
+        <v>2.512777697612995</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.390437444594347</v>
+        <v>-2.326035310415843</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8745655253462864</v>
+        <v>0.8253168703815877</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5241814714611185</v>
       </c>
       <c r="E39" t="n">
-        <v>2.028772704896867</v>
+        <v>2.253634600476281</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.278078467444497</v>
+        <v>-2.212672403832066</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7389685704123349</v>
+        <v>0.7141118631521446</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4477983403430493</v>
       </c>
       <c r="E40" t="n">
-        <v>1.789694168263133</v>
+        <v>2.00646424622413</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.231626908703365</v>
+        <v>-2.153954730360853</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6484526824588626</v>
+        <v>0.6260118709992714</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3701228484333106</v>
       </c>
       <c r="E41" t="n">
-        <v>1.499642730911534</v>
+        <v>1.715525984208539</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.117690676683444</v>
+        <v>-2.044394069275923</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5799634698254696</v>
+        <v>0.5503884162099564</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2908772384908294</v>
       </c>
       <c r="E42" t="n">
-        <v>1.279185072538918</v>
+        <v>1.490193839787353</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.036665764380848</v>
+        <v>-1.966921944915385</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5251925930534941</v>
+        <v>0.4905966724269907</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2106790514519452</v>
       </c>
       <c r="E43" t="n">
-        <v>1.050907621169715</v>
+        <v>1.247242916776945</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.942770305957515</v>
+        <v>-1.865586674077078</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4467019011627865</v>
+        <v>0.4196415504975054</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1312743860444469</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8554243847479021</v>
+        <v>1.060642565091291</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.875521671980628</v>
+        <v>-1.790529835596463</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4225026883921306</v>
+        <v>0.3876036371892834</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.05450122096646293</v>
       </c>
       <c r="E45" t="n">
-        <v>0.6958191222151168</v>
+        <v>0.8739464558593871</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.831126155840813</v>
+        <v>-1.730799083881172</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3537871951876641</v>
+        <v>0.3201000563695154</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.01747860135025168</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5220905364915535</v>
+        <v>0.705112483566727</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.777013383479049</v>
+        <v>-1.683760171528331</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2688453722989923</v>
+        <v>0.2343080040574568</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.08285241731633815</v>
       </c>
       <c r="E47" t="n">
-        <v>0.38732856296407</v>
+        <v>0.5493491113767777</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.727571383659821</v>
+        <v>-1.622797989966686</v>
       </c>
       <c r="G47" t="n">
-        <v>0.199158885377143</v>
+        <v>0.1668032033963352</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.1404385140688401</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2809864532903392</v>
+        <v>0.4111904896004843</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.620971277539826</v>
+        <v>-1.507088108618782</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1087966974342112</v>
+        <v>0.07956441923903025</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.189516587061317</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1759611623577073</v>
+        <v>0.2972902429004915</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.518407016537872</v>
+        <v>-1.411263471094894</v>
       </c>
       <c r="G49" t="n">
-        <v>0.09260574314925724</v>
+        <v>0.06027811751957991</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2300445967687838</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1077738604593047</v>
+        <v>0.2162513024223305</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.454821566145533</v>
+        <v>-1.319707668387567</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03681385916440538</v>
+        <v>0.0111483970868471</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.2631377712163107</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.024152591841977</v>
+        <v>0.08062568121657188</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.325913001352801</v>
+        <v>-1.209992087450742</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001423211896099317</v>
+        <v>-0.02520531493004415</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2896052885252162</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.08096121359496786</v>
+        <v>0.01912067025262097</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.256400341823825</v>
+        <v>-1.143747382907782</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.06583396097026253</v>
+        <v>-0.08027200323024256</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3105857453386299</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.2087896088691793</v>
+        <v>-0.1053000982005991</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.181112343406722</v>
+        <v>-1.070746587028484</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1204981016238072</v>
+        <v>-0.1379589107577506</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3275432194182554</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3310817541605487</v>
+        <v>-0.234565466589229</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.104864329844417</v>
+        <v>-1.001797494204823</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1877955292548344</v>
+        <v>-0.2059205420057565</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3410783137461348</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.3391442955864813</v>
+        <v>-0.2737095657022426</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.047484212417313</v>
+        <v>-0.9639269094648591</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2182555777723092</v>
+        <v>-0.2183366972223167</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3522035569389535</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.4331538091763664</v>
+        <v>-0.3624621729792363</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.012152117533974</v>
+        <v>-0.9143940314647958</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2593855786088145</v>
+        <v>-0.2718218612077074</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3614270519646222</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.5051775121315144</v>
+        <v>-0.4395896921574119</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9747054276643509</v>
+        <v>-0.886158973576098</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2776923477214074</v>
+        <v>-0.2952348862260351</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3697556035148095</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.5807814494591734</v>
+        <v>-0.5279086458332377</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9204901886288928</v>
+        <v>-0.8314893436364625</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3381867201239868</v>
+        <v>-0.3412485219212621</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.377829173990785</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.6829584108313917</v>
+        <v>-0.6154237240571095</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9467338555080081</v>
+        <v>-0.8459536124855428</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3295514631825878</v>
+        <v>-0.3439443713124885</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3862021184830126</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8575170985960092</v>
+        <v>-0.7803273675088053</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.988227978988532</v>
+        <v>-0.8805531926361067</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3663351692765864</v>
+        <v>-0.3760542552605667</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3952448473980233</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9970126664957343</v>
+        <v>-0.9163878621570852</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.99615633786558</v>
+        <v>-0.8873983323912501</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.400073541431582</v>
+        <v>-0.4119377184356852</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4051863954966857</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.066960199467232</v>
+        <v>-0.9956446144177884</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.9441502315213034</v>
+        <v>-0.8538252487396533</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4302030129422593</v>
+        <v>-0.4415920617391758</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4157289126249699</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.161988280587286</v>
+        <v>-1.099958127920655</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.9940740686751621</v>
+        <v>-0.9006897237789437</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.452744461313514</v>
+        <v>-0.4702052704474575</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4278149452514647</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.276639949561033</v>
+        <v>-1.194783715376029</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.032487482817432</v>
+        <v>-0.9284283062367686</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4678656147314519</v>
+        <v>-0.4904887924733909</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4416951408352472</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.341221400418501</v>
+        <v>-1.274641239503329</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.063661138526702</v>
+        <v>-0.9605875937596635</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.49407878557673</v>
+        <v>-0.5108808803797854</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4574949315682639</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.400332472726216</v>
+        <v>-1.327883045138698</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.058783602874747</v>
+        <v>-0.9702200710075456</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5453462779814647</v>
+        <v>-0.5549616774503978</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4748995282496233</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.471274176400812</v>
+        <v>-1.389716193426739</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.105249799712121</v>
+        <v>-1.018387946533047</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5637134292410557</v>
+        <v>-0.5845989429749394</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4934396040627961</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.558274481573509</v>
+        <v>-1.449653708251447</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.139548079048372</v>
+        <v>-1.048272839852348</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.597202953759938</v>
+        <v>-0.6096727819960521</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5119527212073426</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.538371550049866</v>
+        <v>-1.452680134649471</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.221624494597681</v>
+        <v>-1.118583885547187</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5819201713626621</v>
+        <v>-0.6027636005698501</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5304497843739505</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.549422092871188</v>
+        <v>-1.462880448047406</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.210955152199327</v>
+        <v>-1.115562948435254</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.601868237016384</v>
+        <v>-0.6239211389255636</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5483612848544269</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.556828969569616</v>
+        <v>-1.469947598928885</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.271120167436463</v>
+        <v>-1.163549067599084</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6162983503075663</v>
+        <v>-0.6288163622771434</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5657998709809517</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.529137960924577</v>
+        <v>-1.459429516858365</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.403892579716394</v>
+        <v>-1.272486999673055</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6254599687929988</v>
+        <v>-0.6421217818404024</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5826012582216102</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.47048127952104</v>
+        <v>-1.383576731894593</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.444047927311456</v>
+        <v>-1.322844490428082</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.662457757044536</v>
+        <v>-0.6659123477576371</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5984006361632442</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.397120020521784</v>
+        <v>-1.317275304728695</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.499661714458697</v>
+        <v>-1.375971630976221</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6652383854098305</v>
+        <v>-0.6787767946716071</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.6124881738385197</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.267067854460149</v>
+        <v>-1.18631740646209</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.525038074135477</v>
+        <v>-1.402346430800838</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6709826183434436</v>
+        <v>-0.676830537792104</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.624206581163164</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.120203224943954</v>
+        <v>-1.040127959135055</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.557620646608035</v>
+        <v>-1.438267099137238</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6160324248925041</v>
+        <v>-0.6259405862862764</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6331283418042067</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.996410674787784</v>
+        <v>-0.9162006165093236</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.592961280380848</v>
+        <v>-1.478329738789434</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6011284032354886</v>
+        <v>-0.6101296125829364</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6386079910624517</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.8285184200200228</v>
+        <v>-0.7425738875387772</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.654453483010587</v>
+        <v>-1.542058520540808</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5285624807987116</v>
+        <v>-0.5463325197157664</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6399981677438299</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6234508900837907</v>
+        <v>-0.5410060824457256</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.632587216828492</v>
+        <v>-1.53522374943717</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4870403009670574</v>
+        <v>-0.496412342085968</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.6369490761244639</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4132203816188864</v>
+        <v>-0.3326175344246003</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.757290378555047</v>
+        <v>-1.640779671358572</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4241074656988392</v>
+        <v>-0.4461146235572627</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.6289788448956709</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.1370421999805983</v>
+        <v>-0.07937785951812991</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.767740149509771</v>
+        <v>-1.639825145499461</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4048516600132263</v>
+        <v>-0.4233688517592973</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6163291174838582</v>
       </c>
       <c r="E82" t="n">
-        <v>0.08408393145373337</v>
+        <v>0.1378173331545605</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.823813206926604</v>
+        <v>-1.684552458487427</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2750471217463511</v>
+        <v>-0.3055419357424005</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.5996078797656783</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3467212641475378</v>
+        <v>0.3894931714458489</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.879558127019346</v>
+        <v>-1.72251697101161</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2199340794747199</v>
+        <v>-0.2621155835579388</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5796236771371449</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6073708653558204</v>
+        <v>0.6536174907495651</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.870309289877139</v>
+        <v>-1.713671291436733</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1296566705058561</v>
+        <v>-0.1705683197400855</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.5574817770164983</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8141236061219074</v>
+        <v>0.8586819710824135</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.867448151982513</v>
+        <v>-1.705548977784479</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07157209469710826</v>
+        <v>-0.116705004935111</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.5340869533185806</v>
       </c>
       <c r="E86" t="n">
-        <v>1.057087947387203</v>
+        <v>1.089133179743546</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.833684163159095</v>
+        <v>-1.652119926501349</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.03396682545153</v>
+        <v>-0.07308591781679694</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.5101792838281135</v>
       </c>
       <c r="E87" t="n">
-        <v>1.229962644163319</v>
+        <v>1.26698421932125</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.723585552037272</v>
+        <v>-1.537557305946408</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03612037935494284</v>
+        <v>0.00239908497889621</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4857127899295888</v>
       </c>
       <c r="E88" t="n">
-        <v>1.399862147878258</v>
+        <v>1.428314337527878</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.657937959836849</v>
+        <v>-1.473123455892713</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08383447389694342</v>
+        <v>0.0397597760330985</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.461176425391975</v>
       </c>
       <c r="E89" t="n">
-        <v>1.483062037314138</v>
+        <v>1.509774123272996</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.496315079705381</v>
+        <v>-1.312137942868446</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1189506568607129</v>
+        <v>0.06878590103953858</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.4374154305708866</v>
       </c>
       <c r="E90" t="n">
-        <v>1.634583411197304</v>
+        <v>1.659387055358617</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.400410542572839</v>
+        <v>-1.209709694177408</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1612852510337955</v>
+        <v>0.1176326182782603</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.4148611706107883</v>
       </c>
       <c r="E91" t="n">
-        <v>1.697475991700857</v>
+        <v>1.720443164704482</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.139404137768659</v>
+        <v>-0.9668142739485844</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1643171667179101</v>
+        <v>0.1275237018930835</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3943182383248356</v>
       </c>
       <c r="E92" t="n">
-        <v>1.772251656749492</v>
+        <v>1.790074148844747</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9024377564385037</v>
+        <v>-0.7647841489825578</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2226438810353269</v>
+        <v>0.170643263977141</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3757253020537246</v>
       </c>
       <c r="E93" t="n">
-        <v>1.830551534557132</v>
+        <v>1.836691606009955</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6797508379923738</v>
+        <v>-0.5411585626149126</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1910688975207567</v>
+        <v>0.1410419837725275</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3587928073631026</v>
       </c>
       <c r="E94" t="n">
-        <v>1.883121207606724</v>
+        <v>1.86772924940831</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4949424332550052</v>
+        <v>-0.3743306194280767</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1321523899089246</v>
+        <v>0.0755316237243721</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3421835138973403</v>
       </c>
       <c r="E95" t="n">
-        <v>1.849166923532159</v>
+        <v>1.843006724697004</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.3135111593047906</v>
+        <v>-0.2084084084462118</v>
       </c>
       <c r="G95" t="n">
-        <v>0.08807586228304941</v>
+        <v>0.04831696312787375</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3246311833804557</v>
       </c>
       <c r="E96" t="n">
-        <v>1.848062357186569</v>
+        <v>1.827859344689966</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1455024096877706</v>
+        <v>-0.06713675153579637</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0371694429189495</v>
+        <v>0.005865264184855423</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3051039817282861</v>
       </c>
       <c r="E97" t="n">
-        <v>1.723522044280706</v>
+        <v>1.706526604623121</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.007705470872788866</v>
+        <v>0.04123944359488928</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01191018801210542</v>
+        <v>-0.01290199503868232</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2824567234181761</v>
       </c>
       <c r="E98" t="n">
-        <v>1.593771179033385</v>
+        <v>1.57145845091591</v>
       </c>
       <c r="F98" t="n">
-        <v>0.06448413050643452</v>
+        <v>0.09605118505220701</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.02380798665961435</v>
+        <v>-0.04171098828420009</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2574651843219135</v>
       </c>
       <c r="E99" t="n">
-        <v>1.442316286503984</v>
+        <v>1.421643025165608</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1299670441241363</v>
+        <v>0.1482262394239429</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.04266734390534104</v>
+        <v>-0.06071184712693234</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2303354172253586</v>
       </c>
       <c r="E100" t="n">
-        <v>1.280787334156735</v>
+        <v>1.251177515062647</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1914067935756751</v>
+        <v>0.1976639697984335</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.05090859208956081</v>
+        <v>-0.07256077611411686</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.204171644322567</v>
       </c>
       <c r="E101" t="n">
-        <v>1.145131826837816</v>
+        <v>1.118133688081563</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2176278933897509</v>
+        <v>0.2146533102492506</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1048810826956732</v>
+        <v>-0.1120311827891907</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1800374040730401</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9863426381705193</v>
+        <v>0.9518064897703372</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2039998257884923</v>
+        <v>0.2055539036728463</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.09365610256080194</v>
+        <v>-0.1103215751322659</v>
       </c>
     </row>
   </sheetData>
